--- a/mc/indicators/xl/interest.xlsx
+++ b/mc/indicators/xl/interest.xlsx
@@ -351,7 +351,7 @@
     <t>Interest paid (% of GDP)</t>
   </si>
   <si>
-    <t>Source: Economist Intelligent Unit (Oct. 2017)</t>
+    <t>Source: Economist Intelligence Unit (Oct. 2017)</t>
   </si>
 </sst>
 </file>
